--- a/FinalResults/man_spare_results.xlsx
+++ b/FinalResults/man_spare_results.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'DISCHRGR': 14.0}</t>
+          <t>{'DISCHRGR': 9.0}</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'LAMP': 4.0, 'LAMP-GE S-8 28V 643W SC BAYONET': 1.0}</t>
+          <t>{'LAMP': 3.0}</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/5', 'HMV23/000055/0923/2', 'HMV23/000043/0823/12', 'HMV23/000055/0923/6']</t>
+          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.0, 2.0, 2.0, 3.0]</t>
+          <t>[2.0, 0.0, 3.0, 2.0]</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'ELBOW': 2.0, 'SEAL': 5.0, 'SCREW': 4.0}</t>
+          <t>{'SCREW': 4.0, 'SEAL': 1.0}</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
+          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 14.0, 'FOAM TAPE': 65.0, 'GILLFAB 0.496"X60"X144"': 154.0, 'INSERT ASSY SLEEVE AND PLUG': 320.0, 'ISOPROPYL ALCOHOL': 10.0, 'Low Density Sealant': 5.0, 'SEALANT (130 ML)': 2.0, 'corrosion inhibiting compound': 2.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0}</t>
+          <t>{'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'FOAM TAPE': 15.0, 'Low Density Sealant': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0, 'SEALANT (130 ML)': 1.0, 'corrosion inhibiting compound': 1.0}</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 55.0, 'Low Density Sealant': 8.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 2.0, 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 3.0, 'GILLFAB 0.496"X60"X144"': 150.0, 'INSERT ASSY SLEEVE AND PLUG': 260.0, 'ISOPROPYL ALCOHOL': 4.0}</t>
+          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 20.0, 'Low Density Sealant': 4.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 1.0}</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/9', 'HMV23/000055/0923/14', 'HMV23/000055/0923/13', 'HMV23/000059/0923/8']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[7.0, 5.0, 5.0, 5.0]</t>
+          <t>[5.0, 5.0, 7.0, 5.0]</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'SCREW': 90.0, 'SECTION': 48.0, 'STUD': 103.0, 'WASHER': 125.0}</t>
+          <t>{'SCREW': 25.0, 'STUD': 22.0, 'WASHER': 44.0}</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 11.0, 'WASHER': 20.0}</t>
+          <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 7.0, 'WASHER': 16.0}</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'ACCESS DOOR SEALANT': 1.0, 'VALVE': 7.0, 'Access Door Sealant': 1.0}</t>
+          <t>{'ACCESS DOOR SEALANT': 1.0, 'VALVE': 3.0}</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
+          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[2.5, 3.0]</t>
+          <t>[3.0, 2.5]</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'FILTER': 2.0}</t>
+          <t>{'FILTER': 1.0}</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['AWR23/003086/0923', 'AIRCRAFT ARRIVAL INSPECTION']</t>
+          <t>['AIRCRAFT ARRIVAL INSPECTION', 'AWR23/003086/0923']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
+          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
+          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[6.0, 5.0]</t>
+          <t>[5.0, 6.0]</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'CABLE': 4.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 31.0}</t>
+          <t>{'CABLE': 2.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 19.0}</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/7', 'HMV23/000055/0923/8', 'HMV23/000055/0923/9', 'HMV23/000055/0923/1']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[7.0, 3.0, 7.0, 2.0]</t>
+          <t>[3.0, 2.0, 7.0, 7.0]</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'ALODINE CHROMATING POWDER': 0.04, 'Demineralized Water.': 1.0, 'Fuel Tank Sealant': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/3', 'HMV23/000055/0923/5', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[2.0, 4.0, 2.5]</t>
+          <t>[4.0, 2.0, 2.5]</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/20', 'HMV23/000055/0923/19']</t>
+          <t>['HMV23/000055/0923/19', 'HMV23/000055/0923/20']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM']</t>
+          <t>['1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#2 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #2 . DAMAGE DIMENSION \nA) LENGTH: 84MM\n\nB) WIDTH: 35MM\n\nC) DEPTH: 1.35MM\n\nD) LOCATION: DISTANCE FROM RIB WFX5997 FASTENER ROW CENTER =76MM, DISTANCE FROM UPPER GIRDER RIVET ROW CENTER =65MM', '1.CARRY OUT HFEC INSPECTION AS PER NTM 51-10-08 ON DENT AND SURROUNDING AREA OF DENT ON RH WING SLAT#1 NOSE TOP SKIN TO ENSURE CRACK FREE CONDITION EXISTS AS REFERRED BY SRM TASK 57-40-00-283-007 REV:37 DTD:AUG 01/2023.\n\nDAMAGE DIMENSION AND LOCATION ARE\n\nDENT ON NOSE TOP SKIN OF SLAT #1 . DAMAGE DIMENSION \nA) LENGTH: 28MM\n\nB) WIDTH: 25MM\n\nC) DEPTH: 0.30MM\n\nD) LOCATION: DISTANCE FROM RIB TRACK 2 RIVET ROW CENTER =109MM, DISTANCE FROM UPEER GIRDER RIVET ROW CENTER =25MM']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 3.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 8.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 28.0, 'SECTION': 7.0, 'STUD': 72.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND': 1.0, 'INSERT ASSY SLEEVE AND PLUG': 50.0, 'METHYL ETHYL KETONE': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 2.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 2.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 6.0, 'SECTION': 7.0, 'STUD': 31.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0}</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'Fuel Tank Sealant': 1.0, 'PIN': 5.0}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['HMV23/000043/0823/8', 'HMV23/000043/0823/9']</t>
+          <t>['HMV23/000043/0823/9', 'HMV23/000043/0823/8']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.', 'POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .']</t>
+          <t>['POST REPAIR INSTALLATION OF LH WING SLAT #2(P/N-D5746092000400, S/N-SA7202688) TO BE CARRIED OUT .', 'REMOVAL OF LH WING SLAT #2 (P/N-D5746092000400, S/N-SA7202688)TO BE CARRIED OUT FOR REPAIR.']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[5.0, 10.0]</t>
+          <t>[10.0, 5.0]</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'BOLT': 1.0, 'ELBOW': 6.0, 'PLATE': 1.0, 'SEAL': 3.0, 'SEALANT (310 ML)': 1.0}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'CLAMP': 2.0, 'HOSE': 1.0}</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'BUSHING': 2.0}</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'CONTACT': 2.0}</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'BELLOWS': 1.0}</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'BOLT': 1.0, 'COMPASS LIGHT': 1.0, 'LAMP': 4.0, 'MOULD RELEASE AGENT': 1.0, 'SCREW': 4.0, 'SEALANT': 2.0}</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'BRAID': 8.0, 'CABLE': 3.0, 'LEAD': 8.0, 'SEALANT': 1.0}</t>
         </is>
       </c>
     </row>

--- a/FinalResults/man_spare_results.xlsx
+++ b/FinalResults/man_spare_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,27 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>spareParts</t>
+          <t>spareParts_agg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>spareParts_append</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>group_spare_avg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>group_spare_max</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>group_spare_min</t>
         </is>
       </c>
     </row>
@@ -520,7 +540,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>{'DISCHRGR': 14.0}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{'DISCHRGR': [9.0, 5.0]}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'DISCHRGR': 7.0}</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>{'DISCHRGR': 9.0}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{'DISCHRGR': 5.0}</t>
         </is>
       </c>
     </row>
@@ -535,12 +575,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/21', 'HMV23/000059/0923/4']</t>
+          <t>['HMV23/000059/0923/4', 'HMV23/000055/0923/21']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION \n1.103VU BATTERY COMPARMENT LAMP FIN: 8LS QTY#1,.\n2. REFUEL/DEFUEL CONTROL PANEL FLOODLIGHT LAMP FIN: 32QU.', 'DURING ARRIVAL CHECK FOUND SERVICE LIGHT LAMP INOP AT FOLLOWING LOCATION\n1. 80VU RH AVIONICS COMPARTMENT FIN: 9LS QTY#1, 90VU FWD AVIONICS COMPARMENT FIN: 6LS QTY#1.\n2. THS COMPARMENT FIN: 5LJ QTY#1.']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -564,7 +604,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'LAMP': 3.0}</t>
+          <t>{'LAMP': 4.0, 'LAMP-GE S-8 28V 643W SC BAYONET': 1.0}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{'LAMP': [1.0, 3.0], 'LAMP-GE S-8 28V 643W SC BAYONET': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{'LAMP': 2.0, 'LAMP-GE S-8 28V 643W SC BAYONET': 1.0}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{'LAMP': 3.0, 'LAMP-GE S-8 28V 643W SC BAYONET': 1.0}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{'LAMP': 1.0, 'LAMP-GE S-8 28V 643W SC BAYONET': 1.0}</t>
         </is>
       </c>
     </row>
@@ -579,12 +639,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/2', 'HMV23/000059/0923/5', 'HMV23/000055/0923/6', 'HMV23/000043/0823/12']</t>
+          <t>['HMV23/000059/0923/5', 'HMV23/000043/0823/12', 'HMV23/000055/0923/2', 'HMV23/000055/0923/6']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
+          <t>['DURING ARRIVAL INSPECTION , OBSERVED FOLLOWINS DICREPANCIES.\n\n1) RH SIDE WING NO#1 SLAT, NO.3 TRACK SQURE SEAL UPPER BULB SEAL DEGRADED.\n2) RH SIIDE WING SLAT NO#5 OUT BOARD WEATHER SEAL ERODED. SAME TO BE REPLACED.', 'WHILE ARRIVAL INSPECTION OBSERVED RH WING SLAT#5 OUTBOARD WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION OBSERVED LH WING SLAT#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.', 'DURING INSPECTION, OBSERVED RH SIDE WING SLAT NO#5 WEATHER SEAL ERODED.SAME TO BE REPLACED.']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -594,7 +654,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[2.0, 0.0, 3.0, 2.0]</t>
+          <t>[0.0, 2.0, 2.0, 3.0]</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -608,7 +668,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'SCREW': 4.0, 'SEAL': 1.0}</t>
+          <t>{'ELBOW': 2.0, 'SEAL': 5.0, 'SCREW': 4.0}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'ELBOW': [2.0], 'SEAL': [2.0, 1.0, 1.0, 1.0], 'SCREW': [4.0]}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'ELBOW': 2.0, 'SEAL': 1.25, 'SCREW': 4.0}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{'ELBOW': 2.0, 'SEAL': 2.0, 'SCREW': 4.0}</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{'ELBOW': 2.0, 'SEAL': 1.0, 'SCREW': 4.0}</t>
         </is>
       </c>
     </row>
@@ -623,12 +703,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/6', 'HMV23/000055/0923/11']</t>
+          <t>['HMV23/000055/0923/11', 'HMV23/000059/0923/6']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000']</t>
+          <t>['DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n131 AF P/N D5367520400000\n\n131EF P/N D5367521000000\n\n131FF P/N D5367400800000\n\n131BF P/N D5367401200000\n\n131CF P/N D5367401100000\n\n131GF P/N D5367400700000', 'DURING INSPECTION FOUND FOLLOWING FORWARD CARGO FLOOR PANEL DAMAGED , TO BE FABRICATED/REPLACED \n\n\n\n131EF P/N D5367521000000 \n\n131FF P/N D5367400800000 \n\n131BF P/N D5367401200000 \n\n131JF P/N D5367400600000']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -652,7 +732,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'FOAM TAPE': 15.0, 'Low Density Sealant': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0, 'SEALANT (130 ML)': 1.0, 'corrosion inhibiting compound': 1.0}</t>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 14.0, 'FOAM TAPE': 65.0, 'GILLFAB 0.496"X60"X144"': 154.0, 'INSERT ASSY SLEEVE AND PLUG': 320.0, 'ISOPROPYL ALCOHOL': 10.0, 'Low Density Sealant': 5.0, 'SEALANT (130 ML)': 2.0, 'corrosion inhibiting compound': 2.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': [1.0], 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': [14.0], 'FOAM TAPE': [50.0, 15.0], 'GILLFAB 0.496"X60"X144"': [154.0], 'INSERT ASSY SLEEVE AND PLUG': [320.0], 'ISOPROPYL ALCOHOL': [10.0], 'Low Density Sealant': [3.0, 2.0], 'SEALANT (130 ML)': [1.0, 1.0], 'corrosion inhibiting compound': [1.0, 1.0], 'Â Edge Sealing Compound': [1.0], 'CORROSION INHIBITING COMPOUND-SPRAY': [1.0], 'NON AQUEOUS CLEANER-GENERAL': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 14.0, 'FOAM TAPE': 32.5, 'GILLFAB 0.496"X60"X144"': 154.0, 'INSERT ASSY SLEEVE AND PLUG': 320.0, 'ISOPROPYL ALCOHOL': 10.0, 'Low Density Sealant': 2.5, 'SEALANT (130 ML)': 1.0, 'corrosion inhibiting compound': 1.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 14.0, 'FOAM TAPE': 50.0, 'GILLFAB 0.496"X60"X144"': 154.0, 'INSERT ASSY SLEEVE AND PLUG': 320.0, 'ISOPROPYL ALCOHOL': 10.0, 'Low Density Sealant': 3.0, 'SEALANT (130 ML)': 1.0, 'corrosion inhibiting compound': 1.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 14.0, 'FOAM TAPE': 15.0, 'GILLFAB 0.496"X60"X144"': 154.0, 'INSERT ASSY SLEEVE AND PLUG': 320.0, 'ISOPROPYL ALCOHOL': 10.0, 'Low Density Sealant': 2.0, 'SEALANT (130 ML)': 1.0, 'corrosion inhibiting compound': 1.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND-SPRAY': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 1.0}</t>
         </is>
       </c>
     </row>
@@ -696,7 +796,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 20.0, 'Low Density Sealant': 4.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 1.0}</t>
+          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 55.0, 'Low Density Sealant': 8.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 2.0, 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 3.0, 'GILLFAB 0.496"X60"X144"': 150.0, 'INSERT ASSY SLEEVE AND PLUG': 260.0, 'ISOPROPYL ALCOHOL': 4.0}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{'BLIND RIVET': [8.0], 'FOAM TAPE': [20.0, 35.0], 'Low Density Sealant': [4.0, 4.0], 'NUT': [4.0], 'NUT CLIP': [40.0], 'PIN': [4.0], 'corrosion inhibiting compound': [1.0, 1.0], 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': [1.0], 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': [3.0], 'GILLFAB 0.496"X60"X144"': [150.0], 'INSERT ASSY SLEEVE AND PLUG': [260.0], 'ISOPROPYL ALCOHOL': [4.0]}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 27.5, 'Low Density Sealant': 4.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 1.0, 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 3.0, 'GILLFAB 0.496"X60"X144"': 150.0, 'INSERT ASSY SLEEVE AND PLUG': 260.0, 'ISOPROPYL ALCOHOL': 4.0}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 35.0, 'Low Density Sealant': 4.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 1.0, 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 3.0, 'GILLFAB 0.496"X60"X144"': 150.0, 'INSERT ASSY SLEEVE AND PLUG': 260.0, 'ISOPROPYL ALCOHOL': 4.0}</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{'BLIND RIVET': 8.0, 'FOAM TAPE': 20.0, 'Low Density Sealant': 4.0, 'NUT': 4.0, 'NUT CLIP': 40.0, 'PIN': 4.0, 'corrosion inhibiting compound': 1.0, 'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 3.0, 'GILLFAB 0.496"X60"X144"': 150.0, 'INSERT ASSY SLEEVE AND PLUG': 260.0, 'ISOPROPYL ALCOHOL': 4.0}</t>
         </is>
       </c>
     </row>
@@ -711,12 +831,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/13', 'HMV23/000059/0923/9', 'HMV23/000055/0923/14']</t>
+          <t>['HMV23/000059/0923/8', 'HMV23/000055/0923/14', 'HMV23/000059/0923/9', 'HMV23/000055/0923/13']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
+          <t>['DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF AFT CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING', 'DURING ARRIVAL INSPECTION OF FORWARD CARGO , FOUND \n1) CARGO SECTION HOSE MISSING/ DAMAGED \n2) FOUND HARDWARE DAMAGED/MISSING']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -740,7 +860,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'SCREW': 25.0, 'STUD': 22.0, 'WASHER': 44.0}</t>
+          <t>{'SCREW': 90.0, 'STUD': 103.0, 'WASHER': 125.0, 'SECTION': 48.0}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{'SCREW': [25.0, 15.0, 35.0, 15.0], 'STUD': [22.0, 50.0, 31.0], 'WASHER': [44.0, 36.0, 45.0], 'SECTION': [26.0, 10.0, 12.0]}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{'SCREW': 22.5, 'STUD': 34.333333333333336, 'WASHER': 41.666666666666664, 'SECTION': 16.0}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'SCREW': 35.0, 'STUD': 50.0, 'WASHER': 45.0, 'SECTION': 26.0}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{'SCREW': 15.0, 'STUD': 22.0, 'WASHER': 36.0, 'SECTION': 10.0}</t>
         </is>
       </c>
     </row>
@@ -784,7 +924,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 11.0, 'WASHER': 20.0}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{'RECEPTCL': [1.0], 'SCREW': [8.0], 'STUD': [7.0, 4.0], 'WASHER': [16.0, 4.0]}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 5.5, 'WASHER': 10.0}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 7.0, 'WASHER': 16.0}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{'RECEPTCL': 1.0, 'SCREW': 8.0, 'STUD': 4.0, 'WASHER': 4.0}</t>
         </is>
       </c>
     </row>
@@ -799,12 +959,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/11', 'HMV23/000055/0923/15']</t>
+          <t>['HMV23/000055/0923/15', 'HMV23/000059/0923/11']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE']</t>
+          <t>['DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE', 'DURING INSPECTION FOUND PISTON TYPE DRAIN VALVES FOUND DAMAGED/ DEFECTIVE \n\nVALVE P/N ABS0341-2-01']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -814,7 +974,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[4.0, 3.0]</t>
+          <t>[3.0, 4.0]</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -828,7 +988,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'ACCESS DOOR SEALANT': 1.0, 'VALVE': 3.0}</t>
+          <t>{'Access Door Sealant': 1.0, 'VALVE': 7.0, 'ACCESS DOOR SEALANT': 1.0}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{'Access Door Sealant': [1.0], 'VALVE': [4.0, 3.0], 'ACCESS DOOR SEALANT': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{'Access Door Sealant': 1.0, 'VALVE': 3.5, 'ACCESS DOOR SEALANT': 1.0}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{'Access Door Sealant': 1.0, 'VALVE': 4.0, 'ACCESS DOOR SEALANT': 1.0}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'Access Door Sealant': 1.0, 'VALVE': 3.0, 'ACCESS DOOR SEALANT': 1.0}</t>
         </is>
       </c>
     </row>
@@ -843,12 +1023,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['HMV23/000059/0923/12', 'HMV23/000055/0923/24']</t>
+          <t>['HMV23/000055/0923/24', 'HMV23/000059/0923/12']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15']</t>
+          <t>['DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE REPLACED\nP/N 7006-15', 'DURING INSPECTION FOUND COMPRESSOR INLET FILTER BLOCKED , TO BE\n REPLACED']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -858,7 +1038,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[3.0, 2.5]</t>
+          <t>[2.5, 3.0]</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -871,6 +1051,26 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>{'FILTER': 2.0}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{'FILTER': [1.0, 1.0]}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{'FILTER': 1.0}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{'FILTER': 1.0}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>{'FILTER': 1.0}</t>
         </is>
@@ -887,12 +1087,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/10', 'HMV23/000059/0923/15']</t>
+          <t>['HMV23/000059/0923/15', 'HMV23/000055/0923/10']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.', 'DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.']</t>
+          <t>['DURING ARRIVAL CHECK FOUND EPSU BATTERIES QTY#2 FIN:10WL AND FIN: 11WL INOP.', 'DURING WEEKLY INSPECTION OBSERVED FIN: 11WL EPSU BATTERY INOP.']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -902,7 +1102,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[5.0, 6.0]</t>
+          <t>[6.0, 5.0]</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -915,6 +1115,26 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -960,7 +1180,27 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>{'CABLE': 4.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 31.0}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{'CABLE': [2.0, 2.0], 'Fuel Tank Sealant': [1.0], 'LEAD': [19.0, 12.0]}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{'CABLE': 2.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 15.5}</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>{'CABLE': 2.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 19.0}</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{'CABLE': 2.0, 'Fuel Tank Sealant': 1.0, 'LEAD': 12.0}</t>
         </is>
       </c>
     </row>
@@ -1007,6 +1247,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1019,12 +1279,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/7', 'HMV23/000055/0923/9']</t>
+          <t>['HMV23/000055/0923/8', 'HMV23/000055/0923/1', 'HMV23/000055/0923/9', 'HMV23/000055/0923/7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917']</t>
+          <t>['DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. ASSESSMENT TO BE CARRY OUT.\n\nSLAT NO #2 P/N- D5746092000500\n SA7205698', 'DURING ARRIVAL INSPECTION, OBSERVED SMALL DENTS ON SLAT NO #1 TOP SKIN AT RH SIDE WING. LOCATION OF DENT 3.5 INCH FROM T/E AND 37 INCH FROM INBD EDGE OF SLAT.\nSLAT NO#1 P/N- D5746091000300\n S/N- SA7205917', 'DURING ARRIVAL INSPECTION , OBSERVED DENT ON SLAT NO #2 LIP AREA AT RH SIDE WING. DENT LOCATION, 3 INCH FROM T/E AND 67.5 INCH FROM OUTBD EDGE .ASSESSMENT TO BE CARRY OUT.\nSLAT NO #2 P/N- D5746092000500\n S/N- SA7205698']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1048,7 +1308,27 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'ALODINE CHROMATING POWDER': 0.04, 'Demineralized Water.': 1.0, 'Fuel Tank Sealant': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{'ALODINE CHROMATING POWDER': [0.04], 'Demineralized Water.': [1.0], 'Fuel Tank Sealant': [1.0], 'NON AQUEOUS CLEANER-GENERAL': [0.5]}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{'ALODINE CHROMATING POWDER': 0.04, 'Demineralized Water.': 1.0, 'Fuel Tank Sealant': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{'ALODINE CHROMATING POWDER': 0.04, 'Demineralized Water.': 1.0, 'Fuel Tank Sealant': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{'ALODINE CHROMATING POWDER': 0.04, 'Demineralized Water.': 1.0, 'Fuel Tank Sealant': 1.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1343,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['HMV23/000055/0923/5', 'HMV23/000055/0923/3', 'HMV23/000055/0923/4']</t>
+          <t>['HMV23/000055/0923/4', 'HMV23/000055/0923/5', 'HMV23/000055/0923/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
+          <t>['DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 34-53-31 ADF1(2RP1)\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING FAILURE MSG IN PFR:\n1. 38-31-41 TOILET ASSY LAV F\nFURTHER RECTIFICATION TO BE CARRIED OUT.', 'DURING ARRIVAL INSPECTION FOUND FOLLOWING WARNING MSG IN PFR:\n1. AUTO FLT AP OFF\nFURTHER RECTIFICATION TO BE CARRIED OUT.']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1078,7 +1358,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[4.0, 2.0, 2.5]</t>
+          <t>[2.5, 4.0, 2.0]</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1091,6 +1371,26 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -1139,6 +1439,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1180,7 +1500,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 2.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 2.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 6.0, 'SECTION': 7.0, 'STUD': 31.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0}</t>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 3.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 8.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 28.0, 'SECTION': 7.0, 'STUD': 72.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND': 1.0, 'INSERT ASSY SLEEVE AND PLUG': 50.0, 'METHYL ETHYL KETONE': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': [1.0], 'ADHESIVE TAPE': [2.0, 1.0], 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': [7.0], 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': [5.0], 'Fuel Tank Sealant': [2.0, 6.0], 'GILLFAB 0.496"X60"X144"': [50.0], 'NUT CLIP': [4.0], 'SCREW': [6.0, 22.0], 'SECTION': [7.0], 'STUD': [31.0, 41.0], 'WASHER': [15.0], 'Â Edge Sealing Compound': [1.0], 'CORROSION INHIBITING COMPOUND': [1.0], 'INSERT ASSY SLEEVE AND PLUG': [50.0], 'METHYL ETHYL KETONE': [2.0], 'NON AQUEOUS CLEANER-GENERAL': [0.5]}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 1.5, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 4.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 14.0, 'SECTION': 7.0, 'STUD': 36.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND': 1.0, 'INSERT ASSY SLEEVE AND PLUG': 50.0, 'METHYL ETHYL KETONE': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 2.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 6.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 22.0, 'SECTION': 7.0, 'STUD': 41.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND': 1.0, 'INSERT ASSY SLEEVE AND PLUG': 50.0, 'METHYL ETHYL KETONE': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 1.0, 'ADHESIVE TAPE': 1.0, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 7.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 5.0, 'Fuel Tank Sealant': 2.0, 'GILLFAB 0.496"X60"X144"': 50.0, 'NUT CLIP': 4.0, 'SCREW': 6.0, 'SECTION': 7.0, 'STUD': 31.0, 'WASHER': 15.0, 'Â Edge Sealing Compound': 1.0, 'CORROSION INHIBITING COMPOUND': 1.0, 'INSERT ASSY SLEEVE AND PLUG': 50.0, 'METHYL ETHYL KETONE': 2.0, 'NON AQUEOUS CLEANER-GENERAL': 0.5}</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1564,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'Fuel Tank Sealant': 1.0, 'PIN': 5.0}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': [1.0], 'PIN': [5.0]}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'PIN': 5.0}</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'PIN': 5.0}</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'PIN': 5.0}</t>
         </is>
       </c>
     </row>
@@ -1271,6 +1631,26 @@
           <t>{'Fuel Tank Sealant': 1.0, 'JOINT COMPOUND': 1.0, 'NUT': 1.0}</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': [1.0], 'JOINT COMPOUND': [1.0], 'NUT': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'JOINT COMPOUND': 1.0, 'NUT': 1.0}</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'JOINT COMPOUND': 1.0, 'NUT': 1.0}</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 1.0, 'JOINT COMPOUND': 1.0, 'NUT': 1.0}</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1314,6 +1694,26 @@
           <t>{'BOLT': 1.0, 'ELBOW': 6.0, 'PLATE': 1.0, 'SEAL': 3.0, 'SEALANT (310 ML)': 1.0}</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{'BOLT': [1.0], 'ELBOW': [6.0], 'PLATE': [1.0], 'SEAL': [3.0], 'SEALANT (310 ML)': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'ELBOW': 6.0, 'PLATE': 1.0, 'SEAL': 3.0, 'SEALANT (310 ML)': 1.0}</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'ELBOW': 6.0, 'PLATE': 1.0, 'SEAL': 3.0, 'SEALANT (310 ML)': 1.0}</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'ELBOW': 6.0, 'PLATE': 1.0, 'SEAL': 3.0, 'SEALANT (310 ML)': 1.0}</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1356,6 +1756,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1399,6 +1819,26 @@
           <t>{'CLAMP': 2.0, 'HOSE': 1.0}</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{'CLAMP': [2.0], 'HOSE': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{'CLAMP': 2.0, 'HOSE': 1.0}</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{'CLAMP': 2.0, 'HOSE': 1.0}</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>{'CLAMP': 2.0, 'HOSE': 1.0}</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1441,6 +1881,26 @@
           <t>{'BUSHING': 2.0}</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{'BUSHING': [2.0]}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{'BUSHING': 2.0}</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{'BUSHING': 2.0}</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>{'BUSHING': 2.0}</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1484,6 +1944,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1523,6 +2003,26 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -1573,6 +2073,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1615,6 +2135,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1657,6 +2197,26 @@
           <t>{'CONTACT': 2.0}</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{'CONTACT': [2.0]}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>{'CONTACT': 2.0}</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{'CONTACT': 2.0}</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{'CONTACT': 2.0}</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1700,6 +2260,26 @@
           <t>{'BELLOWS': 1.0}</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'BELLOWS': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{'BELLOWS': 1.0}</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{'BELLOWS': 1.0}</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{'BELLOWS': 1.0}</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1738,6 +2318,26 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -1789,6 +2389,26 @@
           <t>{'BOLT': 1.0, 'COMPASS LIGHT': 1.0, 'LAMP': 4.0, 'MOULD RELEASE AGENT': 1.0, 'SCREW': 4.0, 'SEALANT': 2.0}</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{'BOLT': [1.0], 'COMPASS LIGHT': [1.0], 'LAMP': [4.0], 'MOULD RELEASE AGENT': [1.0], 'SCREW': [4.0], 'SEALANT': [2.0]}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'COMPASS LIGHT': 1.0, 'LAMP': 4.0, 'MOULD RELEASE AGENT': 1.0, 'SCREW': 4.0, 'SEALANT': 2.0}</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'COMPASS LIGHT': 1.0, 'LAMP': 4.0, 'MOULD RELEASE AGENT': 1.0, 'SCREW': 4.0, 'SEALANT': 2.0}</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.0, 'COMPASS LIGHT': 1.0, 'LAMP': 4.0, 'MOULD RELEASE AGENT': 1.0, 'SCREW': 4.0, 'SEALANT': 2.0}</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1829,6 +2449,26 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -1883,6 +2523,26 @@
           <t>{'BRAID': 8.0, 'CABLE': 3.0, 'LEAD': 8.0, 'SEALANT': 1.0}</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{'BRAID': [8.0], 'CABLE': [3.0], 'LEAD': [8.0], 'SEALANT': [1.0]}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>{'BRAID': 8.0, 'CABLE': 3.0, 'LEAD': 8.0, 'SEALANT': 1.0}</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{'BRAID': 8.0, 'CABLE': 3.0, 'LEAD': 8.0, 'SEALANT': 1.0}</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{'BRAID': 8.0, 'CABLE': 3.0, 'LEAD': 8.0, 'SEALANT': 1.0}</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1925,6 +2585,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1967,6 +2647,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2009,6 +2709,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2051,6 +2771,26 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2089,6 +2829,26 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>{}</t>
         </is>

--- a/FinalResults/man_spare_results.xlsx
+++ b/FinalResults/man_spare_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="284">
   <si>
     <t>sourceTask</t>
   </si>
@@ -56,19 +56,25 @@
     <t>group_spare_min</t>
   </si>
   <si>
-    <t>spareParts_cost_append</t>
-  </si>
-  <si>
-    <t>spareParts_cost_agg</t>
-  </si>
-  <si>
-    <t>group_spare_cost_avg</t>
-  </si>
-  <si>
-    <t>group_spare_cost_max</t>
-  </si>
-  <si>
-    <t>group_spare_cost_min</t>
+    <t>spareParts_cost_append($)</t>
+  </si>
+  <si>
+    <t>spareParts_cost_agg($)</t>
+  </si>
+  <si>
+    <t>group_spare_cost_avg($)</t>
+  </si>
+  <si>
+    <t>group_spare_cost_max($)</t>
+  </si>
+  <si>
+    <t>group_spare_cost_min($)</t>
+  </si>
+  <si>
+    <t>spare_max_cost($)</t>
+  </si>
+  <si>
+    <t>spare_min_cost($)</t>
   </si>
   <si>
     <t>['AIRCRAFT ARRIVAL INSPECTION']</t>
@@ -892,10 +898,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -913,18 +919,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,6 +947,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,7 +974,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,6 +988,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -974,18 +1003,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,8 +1034,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,53 +1057,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,19 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,109 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,7 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,19 +1145,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,6 +1284,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,36 +1342,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1379,162 +1370,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1884,93 +1884,94 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="7" max="7" width="12.5"/>
-    <col min="9" max="9" width="12.5"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:19">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:21">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3">
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0.666666666666667</v>
@@ -1982,54 +1983,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2">
+        <v>608</v>
+      </c>
+      <c r="U2">
+        <v>357.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0.666666666666667</v>
@@ -2041,54 +2048,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="T3">
+        <v>35.6</v>
+      </c>
+      <c r="U3">
+        <v>3.87</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="3">
+    <row r="4" spans="1:21">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>1.33333333333333</v>
@@ -2100,54 +2113,60 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="T4">
+        <v>667.46</v>
+      </c>
+      <c r="U4">
+        <v>394.85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="3">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0.666666666666667</v>
@@ -2159,54 +2178,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="T5">
+        <v>14501.23</v>
+      </c>
+      <c r="U5">
+        <v>14045.07</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="3">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>0.666666666666667</v>
@@ -2218,54 +2243,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="T6">
+        <v>12949.5</v>
+      </c>
+      <c r="U6">
+        <v>12791.35</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="3">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>1.33333333333333</v>
@@ -2277,54 +2308,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="T7">
+        <v>936.88</v>
+      </c>
+      <c r="U7">
+        <v>162.23</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="3">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <v>0.666666666666667</v>
@@ -2336,54 +2373,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="T8">
+        <v>43.55</v>
+      </c>
+      <c r="U8">
+        <v>32.26</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="3">
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G9">
         <v>0.666666666666667</v>
@@ -2395,54 +2438,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="T9">
+        <v>331.24</v>
+      </c>
+      <c r="U9">
+        <v>310.56</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="3">
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G10">
         <v>0.666666666666667</v>
@@ -2454,54 +2503,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S10" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="T10">
+        <v>153.15</v>
+      </c>
+      <c r="U10">
+        <v>14.65</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="3">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G11">
         <v>0.666666666666667</v>
@@ -2513,54 +2568,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="3">
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>0.666666666666667</v>
@@ -2572,54 +2633,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S12" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="T12">
+        <v>1381.75</v>
+      </c>
+      <c r="U12">
+        <v>502.6</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="3">
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>0.666666666666667</v>
@@ -2631,54 +2698,60 @@
         <v>0.666666666666667</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S13" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3">
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G14">
         <v>1.33333333333333</v>
@@ -2690,54 +2763,60 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S14" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="T14">
+        <v>71.47</v>
+      </c>
+      <c r="U14">
+        <v>71.47</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="3">
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2749,54 +2828,60 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S15" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="3">
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G16">
         <v>0.666666666666667</v>
@@ -2808,54 +2893,60 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S16" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="3">
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
         <v>179</v>
       </c>
-      <c r="D17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" t="s">
-        <v>177</v>
-      </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G17">
         <v>0.666666666666667</v>
@@ -2867,54 +2958,60 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S17" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="T17">
+        <v>6644.66</v>
+      </c>
+      <c r="U17">
+        <v>5676.77</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="3">
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G18">
         <v>0.666666666666667</v>
@@ -2926,54 +3023,60 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="S18" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="T18">
+        <v>43.3</v>
+      </c>
+      <c r="U18">
+        <v>43.3</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="3">
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G19">
         <v>0.666666666666667</v>
@@ -2985,51 +3088,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S19" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="T19">
+        <v>217.47</v>
+      </c>
+      <c r="U19">
+        <v>217.47</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="3">
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3044,51 +3153,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" t="s">
+        <v>215</v>
+      </c>
+      <c r="P20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>216</v>
+      </c>
+      <c r="R20" t="s">
+        <v>216</v>
+      </c>
+      <c r="S20" t="s">
+        <v>216</v>
+      </c>
+      <c r="T20">
+        <v>1518.57</v>
+      </c>
+      <c r="U20">
+        <v>1518.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
         <v>212</v>
-      </c>
-      <c r="L20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M20" t="s">
-        <v>212</v>
-      </c>
-      <c r="N20" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" t="s">
-        <v>213</v>
-      </c>
-      <c r="P20" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>214</v>
-      </c>
-      <c r="R20" t="s">
-        <v>214</v>
-      </c>
-      <c r="S20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" t="s">
-        <v>210</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -3103,51 +3218,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="3">
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F22">
         <v>2.5</v>
@@ -3162,51 +3283,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S22" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="T22">
+        <v>448.11</v>
+      </c>
+      <c r="U22">
+        <v>448.11</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="3">
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -3221,51 +3348,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S23" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="T23">
+        <v>3.58</v>
+      </c>
+      <c r="U23">
+        <v>3.58</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="3">
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F24">
         <v>1.2</v>
@@ -3280,51 +3413,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S24" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="3">
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F25">
         <v>0.75</v>
@@ -3339,51 +3478,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S25" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="3">
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -3398,51 +3543,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S26" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="3">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -3457,51 +3608,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S27" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="3">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -3516,51 +3673,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S28" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="T28">
+        <v>26.68</v>
+      </c>
+      <c r="U28">
+        <v>26.68</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="3">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3575,51 +3738,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S29" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="T29">
+        <v>596.7</v>
+      </c>
+      <c r="U29">
+        <v>596.7</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="3">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -3634,51 +3803,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S30" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="3">
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31">
         <v>16</v>
@@ -3693,51 +3868,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S31" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="T31">
+        <v>331.11</v>
+      </c>
+      <c r="U31">
+        <v>331.11</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="3">
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -3752,51 +3933,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S32" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="3">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F33">
         <v>24</v>
@@ -3811,51 +3998,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S33" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="T33">
+        <v>698.41</v>
+      </c>
+      <c r="U33">
+        <v>698.41</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="3">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3870,51 +4063,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S34" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="3">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F35">
         <v>1.1</v>
@@ -3929,51 +4128,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S35" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="3">
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -3988,51 +4193,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S36" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="3">
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4047,51 +4258,57 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S37" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="3">
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F38">
         <v>1.1</v>
@@ -4106,34 +4323,40 @@
         <v>0.333333333333333</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S38" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
